--- a/output_files/cl_1.xlsx
+++ b/output_files/cl_1.xlsx
@@ -3145,7 +3145,7 @@
         <v>18.19478328259358</v>
       </c>
       <c r="ED7">
-        <v>4.300644587743975</v>
+        <v>1.373815319451292</v>
       </c>
       <c r="EE7">
         <v>3.773343135535052</v>
@@ -3462,7 +3462,7 @@
         <v>18.90173174003409</v>
       </c>
       <c r="ED8">
-        <v>5.946644665578998</v>
+        <v>1.115726791182864</v>
       </c>
       <c r="EE8">
         <v>3.206931047071198</v>
@@ -3779,7 +3779,7 @@
         <v>17.88659597115264</v>
       </c>
       <c r="ED9">
-        <v>5.858321676612517</v>
+        <v>1.027403802216382</v>
       </c>
       <c r="EE9">
         <v>1.803289568970126</v>
@@ -4096,7 +4096,7 @@
         <v>16.20222278624058</v>
       </c>
       <c r="ED10">
-        <v>5.849272229475049</v>
+        <v>1.018354355078913</v>
       </c>
       <c r="EE10">
         <v>0.5155816700721584</v>
@@ -4413,7 +4413,7 @@
         <v>17.58493938870387</v>
       </c>
       <c r="ED11">
-        <v>5.797101449275362</v>
+        <v>0.966183574879227</v>
       </c>
       <c r="EE11">
         <v>0.5258021046188016</v>
@@ -4730,7 +4730,7 @@
         <v>19.94150486654128</v>
       </c>
       <c r="ED12">
-        <v>5.797101449275362</v>
+        <v>0.966183574879227</v>
       </c>
       <c r="EE12">
         <v>0.5333793204165622</v>
@@ -5047,7 +5047,7 @@
         <v>16.09807508447156</v>
       </c>
       <c r="ED13">
-        <v>5.83637973947341</v>
+        <v>1.005461865077275</v>
       </c>
       <c r="EE13">
         <v>0.5376031249467305</v>
@@ -7728,7 +7728,7 @@
         <v>19.22905089514058</v>
       </c>
       <c r="ED7">
-        <v>4.285034144947752</v>
+        <v>1.358204876655069</v>
       </c>
       <c r="EE7">
         <v>3.622490898391439</v>
@@ -8051,7 +8051,7 @@
         <v>19.46250770596228</v>
       </c>
       <c r="ED8">
-        <v>5.938855396983652</v>
+        <v>1.107937522587518</v>
       </c>
       <c r="EE8">
         <v>3.09009947139711</v>
@@ -8374,7 +8374,7 @@
         <v>18.69279197816584</v>
       </c>
       <c r="ED9">
-        <v>5.855536196791777</v>
+        <v>1.024618322395641</v>
       </c>
       <c r="EE9">
         <v>1.777405199915432</v>
@@ -8697,7 +8697,7 @@
         <v>16.29588738270619</v>
       </c>
       <c r="ED10">
-        <v>5.849888242929206</v>
+        <v>1.01897036853307</v>
       </c>
       <c r="EE10">
         <v>0.6621842872765893</v>
@@ -9020,7 +9020,7 @@
         <v>18.84302006837175</v>
       </c>
       <c r="ED11">
-        <v>5.797101449275362</v>
+        <v>0.966183574879227</v>
       </c>
       <c r="EE11">
         <v>0.5248160789420699</v>
@@ -9343,7 +9343,7 @@
         <v>21.73300022851175</v>
       </c>
       <c r="ED12">
-        <v>5.797101449275362</v>
+        <v>0.966183574879227</v>
       </c>
       <c r="EE12">
         <v>0.5272598491454452</v>
@@ -9666,7 +9666,7 @@
         <v>18.25830306971881</v>
       </c>
       <c r="ED13">
-        <v>5.839790712786124</v>
+        <v>1.008872838389989</v>
       </c>
       <c r="EE13">
         <v>0.4827699408124053</v>
@@ -12353,7 +12353,7 @@
         <v>20.2414937136293</v>
       </c>
       <c r="ED7">
-        <v>4.284019691567344</v>
+        <v>1.357190423274661</v>
       </c>
       <c r="EE7">
         <v>3.562480024581666</v>
@@ -12676,7 +12676,7 @@
         <v>20.15152361849982</v>
       </c>
       <c r="ED8">
-        <v>5.934241075617845</v>
+        <v>1.10332320122171</v>
       </c>
       <c r="EE8">
         <v>2.947959853869507</v>
@@ -12999,7 +12999,7 @@
         <v>18.83349624845001</v>
       </c>
       <c r="ED9">
-        <v>5.854046269085535</v>
+        <v>1.0231283946894</v>
       </c>
       <c r="EE9">
         <v>1.723374097263658</v>
@@ -13322,7 +13322,7 @@
         <v>16.77132743232447</v>
       </c>
       <c r="ED10">
-        <v>5.841515853789253</v>
+        <v>1.010597979796302</v>
       </c>
       <c r="EE10">
         <v>0.6405487517656462</v>
@@ -13645,7 +13645,7 @@
         <v>19.69141554216753</v>
       </c>
       <c r="ED11">
-        <v>5.797101450529334</v>
+        <v>0.9661835748750249</v>
       </c>
       <c r="EE11">
         <v>0.5198772424545498</v>
@@ -13968,7 +13968,7 @@
         <v>25.95499298524986</v>
       </c>
       <c r="ED12">
-        <v>5.797101448917464</v>
+        <v>0.9661835748767211</v>
       </c>
       <c r="EE12">
         <v>0.5211054886005453</v>
@@ -14291,7 +14291,7 @@
         <v>20.55170915395965</v>
       </c>
       <c r="ED13">
-        <v>5.835228533132884</v>
+        <v>1.004310658888337</v>
       </c>
       <c r="EE13">
         <v>0.529967065639697</v>
